--- a/Assets/StreamingAssets/MultiLanguage.xlsx
+++ b/Assets/StreamingAssets/MultiLanguage.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -36,15 +36,6 @@
   </si>
   <si>
     <t>English</t>
-  </si>
-  <si>
-    <t>70AB3FAF</t>
-  </si>
-  <si>
-    <t>游戏</t>
-  </si>
-  <si>
-    <t>Game</t>
   </si>
   <si>
     <t>380F9592</t>
@@ -88,6 +79,12 @@
   </si>
   <si>
     <t>5555</t>
+  </si>
+  <si>
+    <t>70AB3FAF</t>
+  </si>
+  <si>
+    <t>游戏</t>
   </si>
 </sst>
 </file>
@@ -1390,67 +1387,64 @@
       <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="50" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>11</v>
+      <c r="C5" s="50">
+        <v>1111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="50" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="50">
-        <v>1111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="50" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="50" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="50" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/MultiLanguage.xlsx
+++ b/Assets/StreamingAssets/MultiLanguage.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20580" windowHeight="13200"/>
+    <workbookView windowWidth="24960" windowHeight="13670"/>
   </bookViews>
   <sheets>
     <sheet name="MultiLanguage" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -47,7 +47,7 @@
     <t>A24D0362</t>
   </si>
   <si>
-    <t xml:space="preserve">Unity游戏
+    <t>Unity游戏
 中国Unity游戏</t>
   </si>
   <si>
@@ -85,6 +85,145 @@
   </si>
   <si>
     <t>游戏</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>32D050D5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游戏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游戏</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Game</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Game</t>
+    </r>
+  </si>
+  <si>
+    <t>CC6B90E7</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游戏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游戏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;b&gt;Game&lt;/b&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Game</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -97,15 +236,22 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,6 +259,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,12 +267,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,6 +282,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,6 +290,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,6 +298,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,6 +306,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,12 +314,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,6 +329,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,6 +337,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,12 +345,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,30 +360,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -531,299 +695,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1357,94 +1379,120 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.0909090909091" customWidth="1" style="50"/>
-    <col min="2" max="2" width="20.2727272727273" customWidth="1" style="50"/>
+    <col min="1" max="1" width="17.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="33.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="40.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="50" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="50" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5">
         <v>1111</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="50" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="50" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="50" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="50" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" spans="1:3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="29" spans="1:3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
